--- a/docs/画面項目定義書/イメージ追加モーダル.xlsx
+++ b/docs/画面項目定義書/イメージ追加モーダル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E7641-FCBE-4733-912F-40668D5857B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98001A-F730-43DF-B93C-861B572B5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -181,20 +181,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ファイルアップロード状態表示</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>選択されていません</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -209,6 +195,20 @@
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力覧「イメージファイル」</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ファイルアップロード</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -525,13 +525,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -625,12 +621,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1083,7 +1077,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1097,362 +1091,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="13">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="14">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="13">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="13">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="13">
-      <c r="A10" s="30">
+      <c r="A10" s="28">
         <v>2</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="24">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
-      <c r="A12" s="30">
+      <c r="A12" s="28">
         <v>4</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
-      <c r="A14" s="30">
+      <c r="A14" s="28">
         <v>6</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="13">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
-      <c r="A16" s="30">
+      <c r="A16" s="28">
         <v>8</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="24">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="18" spans="1:7" ht="13">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <v>10</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="13">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>11</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" ht="13">
-      <c r="A20" s="30">
+      <c r="A20" s="28">
         <v>12</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="13">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="13">
-      <c r="A22" s="30">
+      <c r="A22" s="28">
         <v>14</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="13">
-      <c r="A23" s="23">
+      <c r="A23" s="21">
         <v>15</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="13">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
         <v>16</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="13">
-      <c r="A25" s="23">
+      <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="13">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/画面項目定義書/イメージ追加モーダル.xlsx
+++ b/docs/画面項目定義書/イメージ追加モーダル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98001A-F730-43DF-B93C-861B572B5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626EDB9E-CDAA-47A2-9309-11C469A9F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>ファイル名</t>
   </si>
   <si>
-    <t>利用者ダッシュボード画面</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -209,6 +206,13 @@
   </si>
   <si>
     <t>ファイルアップロード</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージ追加モーダル</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1077,7 +1081,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1143,7 +1147,7 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="38" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1163,25 +1167,25 @@
     </row>
     <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13">
@@ -1200,14 +1204,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="33"/>
     </row>
@@ -1216,18 +1220,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1235,18 +1239,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -1254,18 +1258,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
@@ -1273,14 +1277,14 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
@@ -1290,10 +1294,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
@@ -1301,14 +1305,14 @@
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
@@ -1318,18 +1322,18 @@
         <v>9</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>33</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13">
